--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta\data-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB85C61-84A4-47E0-B537-B2BC5793B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFDE7FB-D0F9-42D6-9659-5FEBDB581B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="3120" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
+    <workbookView xWindow="5250" yWindow="3465" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>sals12@gmail.com</t>
-  </si>
-  <si>
-    <t>1234sals!</t>
+    <t>1234sals!s</t>
+  </si>
+  <si>
+    <t>sals1234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFDE7FB-D0F9-42D6-9659-5FEBDB581B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E97330-D4EB-4F9E-87A4-F83C37844A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3465" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
+    <workbookView xWindow="4950" yWindow="3315" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>1234sals!s</t>
-  </si>
-  <si>
-    <t>sals1234@gmail.com</t>
+    <t>emailsalsaaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>emailsalsa2</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E97330-D4EB-4F9E-87A4-F83C37844A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE753C0E-4AFA-40C5-AFD3-BD7346F4BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="3315" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>emailsalsaaaa@gmail.com</t>
-  </si>
-  <si>
-    <t>emailsalsa2</t>
+    <t>halosalsa</t>
+  </si>
+  <si>
+    <t>halosalsa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE753C0E-4AFA-40C5-AFD3-BD7346F4BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BEE4C-62CA-4EB7-A62A-FB2437BF97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="3315" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>halosalsa</t>
-  </si>
-  <si>
-    <t>halosalsa@gmail.com</t>
+    <t>halosalsa1</t>
+  </si>
+  <si>
+    <t>halosalsa1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -98,15 +98,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,18 +120,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,22 +478,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -473,85 +501,85 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BEE4C-62CA-4EB7-A62A-FB2437BF97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700474CF-4BC9-446A-9F63-6941D17BF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3315" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>halosalsa1</t>
-  </si>
-  <si>
-    <t>halosalsa1@gmail.com</t>
+    <t>halosalsa2</t>
+  </si>
+  <si>
+    <t>halosalsa2@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700474CF-4BC9-446A-9F63-6941D17BF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58231FF5-2F9E-4CAF-834D-890B34FB264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>halosalsa2</t>
-  </si>
-  <si>
-    <t>halosalsa2@gmail.com</t>
+    <t>halosalsa3</t>
+  </si>
+  <si>
+    <t>halosalsa3@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58231FF5-2F9E-4CAF-834D-890B34FB264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8117DB5-4095-4F8A-B0B8-6BD8F94FBE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>halosalsa3</t>
-  </si>
-  <si>
-    <t>halosalsa3@gmail.com</t>
+    <t>halosalsa4</t>
+  </si>
+  <si>
+    <t>halosalsa4@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8117DB5-4095-4F8A-B0B8-6BD8F94FBE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10FA25-4264-44B0-8F8E-BF46175D53E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>halosalsa4</t>
-  </si>
-  <si>
-    <t>halosalsa4@gmail.com</t>
+    <t>halosalsa5</t>
+  </si>
+  <si>
+    <t>halosalsa5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-test/WEB_Register.xlsx
+++ b/data-test/WEB_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\final-project-qe-alta4\final-project-qe-alta\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10FA25-4264-44B0-8F8E-BF46175D53E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B8B18-3CB5-4A54-9DB1-55AF77FCD96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{51919866-AF37-4B83-B7BB-E4652AF2DB38}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>salsabila1@gmail.com</t>
   </si>
   <si>
-    <t>halosalsa5</t>
-  </si>
-  <si>
-    <t>halosalsa5@gmail.com</t>
+    <t>halosalsa37</t>
+  </si>
+  <si>
+    <t>halosalsa37@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{B2619720-32D7-4BF9-B345-53088CF3A682}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{9ACCDBE4-379C-4AFB-B70E-646CDA102ED9}"/>
-    <hyperlink ref="B7" r:id="rId3" display="bila@123" xr:uid="{6129EF02-824C-4458-BCD0-96874FFAEF39}"/>
+    <hyperlink ref="B7" r:id="rId3" display="halosalsa27@gmail.com" xr:uid="{6129EF02-824C-4458-BCD0-96874FFAEF39}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{108D5743-EF9C-41B3-99C5-209B14E13F8E}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{EB1DC34C-E0DD-4DBE-B582-D1144331B9BB}"/>
   </hyperlinks>
